--- a/doc/excel/干部/[sample_crPost]招聘岗位录入样表.xlsx
+++ b/doc/excel/干部/[sample_crPost]招聘岗位录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18330A17-1D7D-43A4-A78F-325FF88361C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1980" windowWidth="27870" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="27870" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,31 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{19074541-9A3E-4889-8092-6732F7459055}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>岗位名称留空时，将设置为与岗位编码对应岗位的名称</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
@@ -72,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +78,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,6 +447,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>